--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.02833032013156</v>
+        <v>10.99315966666667</v>
       </c>
       <c r="N2">
-        <v>3.02833032013156</v>
+        <v>32.979479</v>
       </c>
       <c r="O2">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="P2">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="Q2">
-        <v>77.1308226263379</v>
+        <v>448.0085378854828</v>
       </c>
       <c r="R2">
-        <v>77.1308226263379</v>
+        <v>4032.076840969346</v>
       </c>
       <c r="S2">
-        <v>0.004031680731916223</v>
+        <v>0.01238180412107837</v>
       </c>
       <c r="T2">
-        <v>0.004031680731916223</v>
+        <v>0.01238180412107837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.18321806882937</v>
+        <v>3.231633</v>
       </c>
       <c r="N3">
-        <v>3.18321806882937</v>
+        <v>9.694898999999999</v>
       </c>
       <c r="O3">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="P3">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="Q3">
-        <v>81.07577519389156</v>
+        <v>131.700004294714</v>
       </c>
       <c r="R3">
-        <v>81.07577519389156</v>
+        <v>1185.300038652426</v>
       </c>
       <c r="S3">
-        <v>0.004237886094615136</v>
+        <v>0.003639849507375135</v>
       </c>
       <c r="T3">
-        <v>0.004237886094615136</v>
+        <v>0.003639849507375135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.657611564265857</v>
+        <v>0.9576306666666666</v>
       </c>
       <c r="N4">
-        <v>0.657611564265857</v>
+        <v>2.872892</v>
       </c>
       <c r="O4">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="P4">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="Q4">
-        <v>16.74920354072039</v>
+        <v>39.02669731146755</v>
       </c>
       <c r="R4">
-        <v>16.74920354072039</v>
+        <v>351.240275803208</v>
       </c>
       <c r="S4">
-        <v>0.0008754922985484499</v>
+        <v>0.001078597572903231</v>
       </c>
       <c r="T4">
-        <v>0.0008754922985484499</v>
+        <v>0.001078597572903231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.56435431856442</v>
+        <v>3.697989</v>
       </c>
       <c r="N5">
-        <v>3.56435431856442</v>
+        <v>11.093967</v>
       </c>
       <c r="O5">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="P5">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="Q5">
-        <v>90.78322100300814</v>
+        <v>150.705592863362</v>
       </c>
       <c r="R5">
-        <v>90.78322100300814</v>
+        <v>1356.350335770258</v>
       </c>
       <c r="S5">
-        <v>0.004745300911313486</v>
+        <v>0.004165115110511827</v>
       </c>
       <c r="T5">
-        <v>0.004745300911313486</v>
+        <v>0.004165115110511827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.02833032013156</v>
+        <v>10.99315966666667</v>
       </c>
       <c r="N6">
-        <v>3.02833032013156</v>
+        <v>32.979479</v>
       </c>
       <c r="O6">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="P6">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="Q6">
-        <v>5109.755109348715</v>
+        <v>18570.62707137929</v>
       </c>
       <c r="R6">
-        <v>5109.755109348715</v>
+        <v>167135.6436424137</v>
       </c>
       <c r="S6">
-        <v>0.2670903864071727</v>
+        <v>0.5132443856732681</v>
       </c>
       <c r="T6">
-        <v>0.2670903864071727</v>
+        <v>0.5132443856732681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.18321806882937</v>
+        <v>3.231633</v>
       </c>
       <c r="N7">
-        <v>3.18321806882937</v>
+        <v>9.694898999999999</v>
       </c>
       <c r="O7">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="P7">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="Q7">
-        <v>5371.099936900345</v>
+        <v>5459.16306997112</v>
       </c>
       <c r="R7">
-        <v>5371.099936900345</v>
+        <v>49132.46762974007</v>
       </c>
       <c r="S7">
-        <v>0.2807510588821747</v>
+        <v>0.1508772313055456</v>
       </c>
       <c r="T7">
-        <v>0.2807510588821747</v>
+        <v>0.1508772313055456</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.657611564265857</v>
+        <v>0.9576306666666666</v>
       </c>
       <c r="N8">
-        <v>0.657611564265857</v>
+        <v>2.872892</v>
       </c>
       <c r="O8">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="P8">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="Q8">
-        <v>1109.599579720975</v>
+        <v>1617.715244936071</v>
       </c>
       <c r="R8">
-        <v>1109.599579720975</v>
+        <v>14559.43720442464</v>
       </c>
       <c r="S8">
-        <v>0.0579995272107445</v>
+        <v>0.04470949009369271</v>
       </c>
       <c r="T8">
-        <v>0.0579995272107445</v>
+        <v>0.04470949009369271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.56435431856442</v>
+        <v>3.697989</v>
       </c>
       <c r="N9">
-        <v>3.56435431856442</v>
+        <v>11.093967</v>
       </c>
       <c r="O9">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="P9">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="Q9">
-        <v>6014.197846826192</v>
+        <v>6246.973273870959</v>
       </c>
       <c r="R9">
-        <v>6014.197846826192</v>
+        <v>56222.75946483863</v>
       </c>
       <c r="S9">
-        <v>0.3143662254770436</v>
+        <v>0.1726502798177773</v>
       </c>
       <c r="T9">
-        <v>0.3143662254770436</v>
+        <v>0.1726502798177773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.02833032013156</v>
+        <v>10.99315966666667</v>
       </c>
       <c r="N10">
-        <v>3.02833032013156</v>
+        <v>32.979479</v>
       </c>
       <c r="O10">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="P10">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="Q10">
-        <v>110.1759441458894</v>
+        <v>1109.928788659572</v>
       </c>
       <c r="R10">
-        <v>110.1759441458894</v>
+        <v>9989.359097936152</v>
       </c>
       <c r="S10">
-        <v>0.005758971783376015</v>
+        <v>0.03067557800213508</v>
       </c>
       <c r="T10">
-        <v>0.005758971783376015</v>
+        <v>0.03067557800213508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.18321806882937</v>
+        <v>3.231633</v>
       </c>
       <c r="N11">
-        <v>3.18321806882937</v>
+        <v>9.694898999999999</v>
       </c>
       <c r="O11">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="P11">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="Q11">
-        <v>115.8110308588445</v>
+        <v>326.283126038677</v>
       </c>
       <c r="R11">
-        <v>115.8110308588445</v>
+        <v>2936.548134348093</v>
       </c>
       <c r="S11">
-        <v>0.006053521611184288</v>
+        <v>0.009017626703481926</v>
       </c>
       <c r="T11">
-        <v>0.006053521611184288</v>
+        <v>0.009017626703481926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657611564265857</v>
+        <v>0.9576306666666666</v>
       </c>
       <c r="N12">
-        <v>0.657611564265857</v>
+        <v>2.872892</v>
       </c>
       <c r="O12">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="P12">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="Q12">
-        <v>23.92505681847098</v>
+        <v>96.68756554673821</v>
       </c>
       <c r="R12">
-        <v>23.92505681847098</v>
+        <v>870.188089920644</v>
       </c>
       <c r="S12">
-        <v>0.00125057904610099</v>
+        <v>0.002672195720184357</v>
       </c>
       <c r="T12">
-        <v>0.00125057904610099</v>
+        <v>0.002672195720184357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.56435431856442</v>
+        <v>3.697989</v>
       </c>
       <c r="N13">
-        <v>3.56435431856442</v>
+        <v>11.093967</v>
       </c>
       <c r="O13">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="P13">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="Q13">
-        <v>129.6774330421302</v>
+        <v>373.368947209241</v>
       </c>
       <c r="R13">
-        <v>129.6774330421302</v>
+        <v>3360.320524883169</v>
       </c>
       <c r="S13">
-        <v>0.006778327915587221</v>
+        <v>0.01031895773919329</v>
       </c>
       <c r="T13">
-        <v>0.006778327915587221</v>
+        <v>0.01031895773919329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H14">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J14">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.02833032013156</v>
+        <v>10.99315966666667</v>
       </c>
       <c r="N14">
-        <v>3.02833032013156</v>
+        <v>32.979479</v>
       </c>
       <c r="O14">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="P14">
-        <v>0.2902502686289671</v>
+        <v>0.5822520966482423</v>
       </c>
       <c r="Q14">
-        <v>255.7691825594717</v>
+        <v>938.9559690039908</v>
       </c>
       <c r="R14">
-        <v>255.7691825594717</v>
+        <v>8450.603721035917</v>
       </c>
       <c r="S14">
-        <v>0.01336922970650215</v>
+        <v>0.02595032885176065</v>
       </c>
       <c r="T14">
-        <v>0.01336922970650215</v>
+        <v>0.02595032885176065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H15">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J15">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.18321806882937</v>
+        <v>3.231633</v>
       </c>
       <c r="N15">
-        <v>3.18321806882937</v>
+        <v>9.694898999999999</v>
       </c>
       <c r="O15">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="P15">
-        <v>0.3050954822993577</v>
+        <v>0.1711632639661454</v>
       </c>
       <c r="Q15">
-        <v>268.8508178783014</v>
+        <v>276.022652903062</v>
       </c>
       <c r="R15">
-        <v>268.8508178783014</v>
+        <v>2484.203876127558</v>
       </c>
       <c r="S15">
-        <v>0.01405301571138357</v>
+        <v>0.007628556449742748</v>
       </c>
       <c r="T15">
-        <v>0.01405301571138357</v>
+        <v>0.007628556449742748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H16">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J16">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.657611564265857</v>
+        <v>0.9576306666666666</v>
       </c>
       <c r="N16">
-        <v>0.657611564265857</v>
+        <v>2.872892</v>
       </c>
       <c r="O16">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="P16">
-        <v>0.06302876932308632</v>
+        <v>0.05072085554911168</v>
       </c>
       <c r="Q16">
-        <v>55.54109177450192</v>
+        <v>81.79386617065155</v>
       </c>
       <c r="R16">
-        <v>55.54109177450192</v>
+        <v>736.144795535864</v>
       </c>
       <c r="S16">
-        <v>0.002903170767692378</v>
+        <v>0.002260572162331381</v>
       </c>
       <c r="T16">
-        <v>0.002903170767692378</v>
+        <v>0.002260572162331381</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.4588124548977</v>
+        <v>85.41274733333334</v>
       </c>
       <c r="H17">
-        <v>84.4588124548977</v>
+        <v>256.238242</v>
       </c>
       <c r="I17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="J17">
-        <v>0.04606104163022263</v>
+        <v>0.04456888863285297</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.56435431856442</v>
+        <v>3.697989</v>
       </c>
       <c r="N17">
-        <v>3.56435431856442</v>
+        <v>11.093967</v>
       </c>
       <c r="O17">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="P17">
-        <v>0.3416254797485889</v>
+        <v>0.1958637838365006</v>
       </c>
       <c r="Q17">
-        <v>301.041132914437</v>
+        <v>315.855400098446</v>
       </c>
       <c r="R17">
-        <v>301.041132914437</v>
+        <v>2842.698600886014</v>
       </c>
       <c r="S17">
-        <v>0.01573562544464453</v>
+        <v>0.008729431169018182</v>
       </c>
       <c r="T17">
-        <v>0.01573562544464453</v>
+        <v>0.008729431169018182</v>
       </c>
     </row>
   </sheetData>
